--- a/jarvis.xlsx
+++ b/jarvis.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BITS Hyderabad\CSF364 DA\DA-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{62069471-18E0-477A-BA31-97AC89A804CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA50AEA2-4146-4BAF-B630-255F7F195EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jarvis" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -763,19 +763,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>21</c:v>
@@ -805,22 +805,22 @@
                   <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>95</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>108</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>82</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>80</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>103</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1725,11 +1725,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B21" totalsRowShown="0">
-  <autoFilter ref="A1:B21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:B21" totalsRowShown="0">
+  <autoFilter ref="A1:B21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Number of Points"/>
-    <tableColumn id="2" name="Time(ms)"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Number of Points"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Time(ms)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2031,11 +2031,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2057,7 +2057,7 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -2065,7 +2065,7 @@
         <v>100</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -2081,7 +2081,7 @@
         <v>200</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -2089,7 +2089,7 @@
         <v>250</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -2169,7 +2169,7 @@
         <v>750</v>
       </c>
       <c r="B16">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -2177,7 +2177,7 @@
         <v>800</v>
       </c>
       <c r="B17">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -2185,7 +2185,7 @@
         <v>850</v>
       </c>
       <c r="B18">
-        <v>82</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -2201,7 +2201,7 @@
         <v>950</v>
       </c>
       <c r="B20">
-        <v>80</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -2209,7 +2209,7 @@
         <v>1000</v>
       </c>
       <c r="B21">
-        <v>103</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/jarvis.xlsx
+++ b/jarvis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BITS Hyderabad\CSF364 DA\DA-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA50AEA2-4146-4BAF-B630-255F7F195EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1800F6D-8DE7-4775-BDAB-27CF5D005825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -766,19 +766,19 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>19</c:v>
@@ -802,22 +802,22 @@
                   <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>98</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>111</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>110</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>124</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>133</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>170</c:v>
@@ -2034,8 +2034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2065,7 +2065,7 @@
         <v>100</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -2073,7 +2073,7 @@
         <v>150</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -2081,7 +2081,7 @@
         <v>200</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -2089,7 +2089,7 @@
         <v>250</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -2097,7 +2097,7 @@
         <v>300</v>
       </c>
       <c r="B7">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -2161,7 +2161,7 @@
         <v>700</v>
       </c>
       <c r="B15">
-        <v>98</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -2169,7 +2169,7 @@
         <v>750</v>
       </c>
       <c r="B16">
-        <v>111</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -2177,7 +2177,7 @@
         <v>800</v>
       </c>
       <c r="B17">
-        <v>110</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -2193,7 +2193,7 @@
         <v>900</v>
       </c>
       <c r="B19">
-        <v>124</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -2201,7 +2201,7 @@
         <v>950</v>
       </c>
       <c r="B20">
-        <v>133</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
